--- a/webscript/usat/usat-construction.xlsx
+++ b/webscript/usat/usat-construction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="55">
   <si>
     <t>comp_count</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Volkswagen AG</t>
+  </si>
+  <si>
+    <t>Daimler AG</t>
+  </si>
+  <si>
+    <t>Honda Motor Co Ltd</t>
+  </si>
+  <si>
+    <t>Toyota Motor Corp.</t>
   </si>
   <si>
     <t>Hovnanian Enterprises Inc</t>
@@ -527,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>19870401</v>
@@ -596,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G3">
         <v>19870701</v>
@@ -619,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>19871001</v>
@@ -642,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>19880101</v>
@@ -665,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>19880401</v>
@@ -688,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7">
         <v>19880701</v>
@@ -711,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>19881001</v>
@@ -734,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>19890101</v>
@@ -757,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>19890401</v>
@@ -780,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>19890701</v>
@@ -803,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>19891001</v>
@@ -826,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G13">
         <v>19900101</v>
@@ -849,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>19900401</v>
@@ -872,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G15">
         <v>19900701</v>
@@ -895,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>19901001</v>
@@ -918,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G17">
         <v>19910101</v>
@@ -941,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G18">
         <v>19910401</v>
@@ -964,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G19">
         <v>19910701</v>
@@ -987,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G20">
         <v>19911001</v>
@@ -1010,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G21">
         <v>19920101</v>
@@ -1033,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>19920401</v>
@@ -1056,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G23">
         <v>19920701</v>
@@ -1079,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G24">
         <v>19921001</v>
@@ -1102,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G25">
         <v>19930101</v>
@@ -1125,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G26">
         <v>19930401</v>
@@ -1148,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G27">
         <v>19930701</v>
@@ -1171,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G28">
         <v>19931001</v>
@@ -1194,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G29">
         <v>19940101</v>
@@ -1217,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G30">
         <v>19940401</v>
@@ -1240,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G31">
         <v>19940701</v>
@@ -1263,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G32">
         <v>19941001</v>
@@ -1286,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G33">
         <v>19950101</v>
@@ -1309,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G34">
         <v>19950401</v>
@@ -1332,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G35">
         <v>19950701</v>
@@ -1355,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G36">
         <v>19951001</v>
@@ -1378,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G37">
         <v>19960101</v>
@@ -1401,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G38">
         <v>19960701</v>
@@ -1424,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G39">
         <v>19961001</v>
@@ -1447,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G40">
         <v>19970101</v>
@@ -1470,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G41">
         <v>19970101</v>
@@ -1493,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G42">
         <v>19970101</v>
@@ -1516,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G43">
         <v>19970101</v>
@@ -1539,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G44">
         <v>19970101</v>
@@ -1562,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G45">
         <v>19970101</v>
@@ -1585,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G46">
         <v>19970101</v>
@@ -1608,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G47">
         <v>19970101</v>
@@ -1631,7 +1640,7 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G48">
         <v>19970101</v>
@@ -1654,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G49">
         <v>19970401</v>
@@ -1677,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G50">
         <v>19970701</v>
@@ -1700,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G51">
         <v>19971001</v>
@@ -1723,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G52">
         <v>19980101</v>
@@ -1746,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G53">
         <v>19980401</v>
@@ -1769,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G54">
         <v>19980701</v>
@@ -1792,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G55">
         <v>19981001</v>
@@ -1815,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G56">
         <v>19990401</v>
@@ -1838,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G57">
         <v>19990701</v>
@@ -1861,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G58">
         <v>19991001</v>
@@ -1884,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G59">
         <v>20000101</v>
@@ -1907,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G60">
         <v>20000701</v>
@@ -1930,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G61">
         <v>20001001</v>
@@ -1953,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G62">
         <v>20010101</v>
@@ -1976,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G63">
         <v>20010401</v>
@@ -1999,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G64">
         <v>20010701</v>
@@ -2022,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G65">
         <v>20011001</v>
@@ -2045,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G66">
         <v>20020101</v>
@@ -2068,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G67">
         <v>20020401</v>
@@ -2091,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G68">
         <v>20020701</v>
@@ -2114,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G69">
         <v>20021001</v>
@@ -2137,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G70">
         <v>20021001</v>
@@ -2160,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G71">
         <v>20030101</v>
@@ -2183,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G72">
         <v>20030401</v>
@@ -2206,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G73">
         <v>20030701</v>
@@ -2229,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G74">
         <v>20031001</v>
@@ -2252,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G75">
         <v>20040101</v>
@@ -2275,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G76">
         <v>20040401</v>
@@ -2298,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G77">
         <v>20040701</v>
@@ -2321,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G78">
         <v>20041001</v>
@@ -2344,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G79">
         <v>20041001</v>
@@ -2367,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G80">
         <v>20050101</v>
@@ -2390,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G81">
         <v>20050401</v>
@@ -2413,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G82">
         <v>20050701</v>
@@ -2436,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G83">
         <v>20051001</v>
@@ -2459,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G84">
         <v>20060101</v>
@@ -2482,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G85">
         <v>20060401</v>
@@ -2493,45 +2502,45 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C86">
-        <v>20061231</v>
+        <v>20060930</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G86">
-        <v>20061001</v>
+        <v>20060701</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C87">
-        <v>20070331</v>
+        <v>20060930</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G87">
-        <v>20070101</v>
+        <v>20060701</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2539,22 +2548,22 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C88">
-        <v>20070630</v>
+        <v>20060930</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G88">
-        <v>20070401</v>
+        <v>20060701</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2562,45 +2571,45 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C89">
-        <v>20071231</v>
+        <v>20061231</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G89">
-        <v>20071001</v>
+        <v>20061001</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>20071231</v>
+        <v>20070331</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G90">
-        <v>20071001</v>
+        <v>20070101</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2608,22 +2617,22 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C91">
-        <v>20071231</v>
+        <v>20070630</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G91">
-        <v>20071001</v>
+        <v>20070401</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2631,22 +2640,22 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C92">
-        <v>20080331</v>
+        <v>20070930</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G92">
-        <v>20080101</v>
+        <v>20070701</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2657,19 +2666,19 @@
         <v>29</v>
       </c>
       <c r="C93">
-        <v>20080331</v>
+        <v>20071231</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G93">
-        <v>20080101</v>
+        <v>20071001</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2677,68 +2686,68 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C94">
-        <v>20080630</v>
+        <v>20071231</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G94">
-        <v>20080401</v>
+        <v>20071001</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C95">
-        <v>20080930</v>
+        <v>20071231</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G95">
-        <v>20080701</v>
+        <v>20071001</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C96">
-        <v>20081231</v>
+        <v>20080331</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G96">
-        <v>20081001</v>
+        <v>20080101</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2746,91 +2755,91 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C97">
-        <v>20090331</v>
+        <v>20080331</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G97">
-        <v>20090101</v>
+        <v>20080101</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98">
-        <v>20090630</v>
+        <v>20080630</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G98">
-        <v>20090401</v>
+        <v>20080401</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99">
-        <v>20090930</v>
+        <v>20080930</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G99">
-        <v>20090701</v>
+        <v>20080701</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100">
-        <v>20091231</v>
+        <v>20081231</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G100">
-        <v>20091001</v>
+        <v>20081001</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2838,91 +2847,91 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C101">
-        <v>20100331</v>
+        <v>20090331</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G101">
-        <v>20100101</v>
+        <v>20090101</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102">
-        <v>20100630</v>
+        <v>20090630</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G102">
-        <v>20100401</v>
+        <v>20090401</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C103">
-        <v>20100930</v>
+        <v>20090930</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G103">
-        <v>20100701</v>
+        <v>20090701</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104">
-        <v>20101231</v>
+        <v>20091231</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G104">
-        <v>20101001</v>
+        <v>20091001</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2930,45 +2939,45 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C105">
-        <v>20110331</v>
+        <v>20100331</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G105">
-        <v>20110101</v>
+        <v>20100101</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C106">
-        <v>20110331</v>
+        <v>20100630</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G106">
-        <v>20110101</v>
+        <v>20100401</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2979,19 +2988,19 @@
         <v>35</v>
       </c>
       <c r="C107">
-        <v>20110331</v>
+        <v>20100930</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G107">
-        <v>20110101</v>
+        <v>20100701</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3002,7 +3011,7 @@
         <v>7</v>
       </c>
       <c r="C108">
-        <v>20110630</v>
+        <v>20101231</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -3011,10 +3020,10 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G108">
-        <v>20110401</v>
+        <v>20101001</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3025,19 +3034,19 @@
         <v>36</v>
       </c>
       <c r="C109">
-        <v>20111231</v>
+        <v>20110331</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G109">
-        <v>20111001</v>
+        <v>20110101</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3048,19 +3057,19 @@
         <v>37</v>
       </c>
       <c r="C110">
-        <v>20120331</v>
+        <v>20110331</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F110" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G110">
-        <v>20120101</v>
+        <v>20110101</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3068,68 +3077,68 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C111">
-        <v>20120630</v>
+        <v>20110331</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G111">
-        <v>20120401</v>
+        <v>20110101</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112">
-        <v>20120930</v>
+        <v>20110630</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G112">
-        <v>20120701</v>
+        <v>20110401</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C113">
-        <v>20121231</v>
+        <v>20111231</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G113">
-        <v>20121001</v>
+        <v>20111001</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3137,22 +3146,22 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C114">
-        <v>20121231</v>
+        <v>20120331</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G114">
-        <v>20121001</v>
+        <v>20120101</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3160,68 +3169,68 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>20121231</v>
+        <v>20120630</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G115">
-        <v>20121001</v>
+        <v>20120401</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C116">
-        <v>20130331</v>
+        <v>20120930</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G116">
-        <v>20130101</v>
+        <v>20120701</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C117">
-        <v>20130630</v>
+        <v>20121231</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E117">
         <v>3</v>
       </c>
       <c r="F117" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G117">
-        <v>20130401</v>
+        <v>20121001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3229,22 +3238,22 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C118">
-        <v>20130630</v>
+        <v>20121231</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E118">
         <v>3</v>
       </c>
       <c r="F118" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G118">
-        <v>20130401</v>
+        <v>20121001</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3252,22 +3261,22 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C119">
-        <v>20130630</v>
+        <v>20121231</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E119">
         <v>3</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G119">
-        <v>20130401</v>
+        <v>20121001</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3275,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C120">
-        <v>20130930</v>
+        <v>20130331</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -3287,10 +3296,10 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G120">
-        <v>20130701</v>
+        <v>20130101</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3301,19 +3310,19 @@
         <v>45</v>
       </c>
       <c r="C121">
-        <v>20131231</v>
+        <v>20130630</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G121">
-        <v>20131001</v>
+        <v>20130401</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3321,22 +3330,22 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C122">
-        <v>20140630</v>
+        <v>20130630</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G122">
-        <v>20140401</v>
+        <v>20130401</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3344,22 +3353,22 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C123">
-        <v>20150331</v>
+        <v>20130630</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F123" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G123">
-        <v>20150101</v>
+        <v>20130401</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3367,22 +3376,22 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C124">
-        <v>20150630</v>
+        <v>20130930</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G124">
-        <v>20150401</v>
+        <v>20130701</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3390,22 +3399,22 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C125">
-        <v>20160331</v>
+        <v>20131231</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G125">
-        <v>20160101</v>
+        <v>20131001</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3413,45 +3422,45 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C126">
-        <v>20161231</v>
+        <v>20140630</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G126">
-        <v>20161001</v>
+        <v>20140401</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C127">
-        <v>20170630</v>
+        <v>20140930</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G127">
-        <v>20170401</v>
+        <v>20140701</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3462,7 +3471,7 @@
         <v>7</v>
       </c>
       <c r="C128">
-        <v>20170930</v>
+        <v>20150331</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3471,33 +3480,33 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G128">
-        <v>20170701</v>
+        <v>20150101</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C129">
-        <v>20171231</v>
+        <v>20150630</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G129">
-        <v>20171001</v>
+        <v>20150401</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3505,22 +3514,22 @@
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C130">
-        <v>20180331</v>
+        <v>20160331</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G130">
-        <v>20180101</v>
+        <v>20160101</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3528,22 +3537,22 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C131">
-        <v>20180630</v>
+        <v>20161231</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G131">
-        <v>20180401</v>
+        <v>20161001</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3551,21 +3560,136 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C132">
+        <v>20170630</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>54</v>
+      </c>
+      <c r="G132">
+        <v>20170401</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>20170930</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133">
+        <v>20170701</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>20171231</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>54</v>
+      </c>
+      <c r="G134">
+        <v>20171001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>20180331</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135">
+        <v>20180101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>20180630</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>54</v>
+      </c>
+      <c r="G136">
+        <v>20180401</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137">
         <v>20181231</v>
       </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132" t="s">
-        <v>51</v>
-      </c>
-      <c r="G132">
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>54</v>
+      </c>
+      <c r="G137">
         <v>20181001</v>
       </c>
     </row>
